--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3295322.526983757</v>
+        <v>3294935.816581956</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.3978644335</v>
+        <v>247834.3978644368</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7452697.859098862</v>
+        <v>7452697.859098861</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>233.0707832977</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>298.358318254414</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -716,16 +716,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.66603379265882</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>49.98440785220907</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.334573069846733</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>347.5721858904512</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>223.568260433533</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -993,7 +993,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>17.87600558965</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>198.2911480673766</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5038758621203</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>126.0224895306994</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>103.1688634333031</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1218,10 +1218,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>43.01200336644001</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3500134355872933</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="V10" t="n">
-        <v>58.0633291268696</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>154.29891630919</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>250.7216036067907</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508323</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
@@ -1427,16 +1427,16 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
-        <v>264.7796735655129</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>125.5693077588053</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>122.7710337916623</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1588,13 +1588,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146303</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>255.66555961684</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747227</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721452</v>
+        <v>46.15072324573468</v>
       </c>
       <c r="H14" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508324</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774087</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
@@ -1664,16 +1664,16 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548094</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>188.7461538873892</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>39.75433043521961</v>
+        <v>39.75433043521696</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932732</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C16" t="n">
-        <v>54.4896443347278</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230619</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808564</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627195</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761978</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H16" t="n">
-        <v>44.3487532603102</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513955</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355686</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214061</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1825,13 +1825,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W16" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.099279429967</v>
+        <v>219.0992794299669</v>
       </c>
       <c r="C17" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876486</v>
       </c>
       <c r="D17" t="n">
-        <v>198.0919004321767</v>
+        <v>198.0919004321766</v>
       </c>
       <c r="E17" t="n">
-        <v>219.8340380020823</v>
+        <v>219.8340380020821</v>
       </c>
       <c r="F17" t="n">
-        <v>239.0058540900594</v>
+        <v>239.0058540900593</v>
       </c>
       <c r="G17" t="n">
-        <v>240.9391219874819</v>
+        <v>240.9391219874818</v>
       </c>
       <c r="H17" t="n">
-        <v>158.4892369657919</v>
+        <v>158.4892369657917</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08520211042090864</v>
+        <v>0.08520211041985704</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.35286092307763</v>
+        <v>14.35286092307749</v>
       </c>
       <c r="T17" t="n">
-        <v>51.11153211342699</v>
+        <v>51.11153211342685</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027395</v>
+        <v>81.33265823027381</v>
       </c>
       <c r="V17" t="n">
-        <v>162.6056566701461</v>
+        <v>162.605656670146</v>
       </c>
       <c r="W17" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481029</v>
       </c>
       <c r="X17" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808495</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.6026121770484</v>
+        <v>218.6026121770483</v>
       </c>
     </row>
     <row r="18">
@@ -1932,10 +1932,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>45.65997552789263</v>
       </c>
       <c r="G18" t="n">
-        <v>39.75433043521961</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.71599030466407</v>
+        <v>10.71599030466393</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747736</v>
+        <v>40.56884027747722</v>
       </c>
       <c r="T19" t="n">
-        <v>59.843338959606</v>
+        <v>59.84333895960586</v>
       </c>
       <c r="U19" t="n">
-        <v>113.3145124229192</v>
+        <v>113.314512422919</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428967</v>
+        <v>87.12412670428952</v>
       </c>
       <c r="W19" t="n">
-        <v>112.2910127749029</v>
+        <v>112.2910127749028</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070604</v>
+        <v>57.9361147707059</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81098252677373</v>
+        <v>48.81098252677359</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.099279429967</v>
+        <v>219.0992794299669</v>
       </c>
       <c r="C20" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876486</v>
       </c>
       <c r="D20" t="n">
-        <v>198.0919004321767</v>
+        <v>198.0919004321766</v>
       </c>
       <c r="E20" t="n">
-        <v>219.8340380020823</v>
+        <v>219.8340380020821</v>
       </c>
       <c r="F20" t="n">
-        <v>239.0058540900594</v>
+        <v>239.0058540900593</v>
       </c>
       <c r="G20" t="n">
-        <v>240.9391219874819</v>
+        <v>240.9391219874818</v>
       </c>
       <c r="H20" t="n">
-        <v>158.4892369657919</v>
+        <v>158.4892369657917</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08520211041999914</v>
+        <v>0.08520211041985704</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.35286092307763</v>
+        <v>14.35286092307749</v>
       </c>
       <c r="T20" t="n">
-        <v>51.11153211342699</v>
+        <v>51.11153211342685</v>
       </c>
       <c r="U20" t="n">
-        <v>81.33265823027395</v>
+        <v>81.33265823027381</v>
       </c>
       <c r="V20" t="n">
-        <v>162.6056566701461</v>
+        <v>162.605656670146</v>
       </c>
       <c r="W20" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481029</v>
       </c>
       <c r="X20" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808495</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.6026121770484</v>
+        <v>218.6026121770483</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>117.4618285547984</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>122.7710337916623</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.71599030466407</v>
+        <v>10.71599030466393</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.56884027747736</v>
+        <v>40.56884027747722</v>
       </c>
       <c r="T22" t="n">
-        <v>59.843338959606</v>
+        <v>59.84333895960586</v>
       </c>
       <c r="U22" t="n">
-        <v>113.3145124229192</v>
+        <v>113.314512422919</v>
       </c>
       <c r="V22" t="n">
-        <v>87.12412670428967</v>
+        <v>87.12412670428952</v>
       </c>
       <c r="W22" t="n">
-        <v>112.2910127749029</v>
+        <v>112.2910127749028</v>
       </c>
       <c r="X22" t="n">
-        <v>57.93611477070604</v>
+        <v>57.9361147707059</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81098252677373</v>
+        <v>48.81098252677359</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.099279429967</v>
+        <v>219.0992794299669</v>
       </c>
       <c r="C23" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876486</v>
       </c>
       <c r="D23" t="n">
-        <v>198.0919004321767</v>
+        <v>198.0919004321766</v>
       </c>
       <c r="E23" t="n">
-        <v>219.8340380020823</v>
+        <v>219.8340380020821</v>
       </c>
       <c r="F23" t="n">
-        <v>239.0058540900594</v>
+        <v>239.0058540900593</v>
       </c>
       <c r="G23" t="n">
-        <v>240.9391219874819</v>
+        <v>240.9391219874818</v>
       </c>
       <c r="H23" t="n">
-        <v>158.4892369657919</v>
+        <v>158.4892369657917</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08520211041999914</v>
+        <v>0.08520211041985704</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.35286092307763</v>
+        <v>14.35286092307749</v>
       </c>
       <c r="T23" t="n">
-        <v>51.11153211342699</v>
+        <v>51.11153211342685</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33265823027395</v>
+        <v>81.33265823027381</v>
       </c>
       <c r="V23" t="n">
-        <v>162.6056566701461</v>
+        <v>162.605656670146</v>
       </c>
       <c r="W23" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481029</v>
       </c>
       <c r="X23" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808495</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.6026121770484</v>
+        <v>218.6026121770483</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>11.25159433703763</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -2448,7 +2448,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>99.1113682539459</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.71599030466407</v>
+        <v>10.71599030466393</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.56884027747736</v>
+        <v>40.56884027747722</v>
       </c>
       <c r="T25" t="n">
-        <v>59.843338959606</v>
+        <v>59.84333895960586</v>
       </c>
       <c r="U25" t="n">
-        <v>113.3145124229192</v>
+        <v>113.314512422919</v>
       </c>
       <c r="V25" t="n">
-        <v>87.12412670428967</v>
+        <v>87.12412670428952</v>
       </c>
       <c r="W25" t="n">
-        <v>112.2910127749029</v>
+        <v>112.2910127749028</v>
       </c>
       <c r="X25" t="n">
-        <v>57.93611477070604</v>
+        <v>57.9361147707059</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81098252677373</v>
+        <v>48.81098252677359</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>175.7654961430989</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2567,13 +2567,13 @@
         <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721451</v>
+        <v>196.4050411479442</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
         <v>138.9063174149372</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>201.7443531921692</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2798,19 +2798,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>277.4076971867455</v>
+        <v>175.2999571625446</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
@@ -2852,13 +2852,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>223.888292432833</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326535</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133602</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.452416085674</v>
+        <v>248.4524160856737</v>
       </c>
       <c r="C32" t="n">
-        <v>236.4637330433557</v>
+        <v>236.4637330433555</v>
       </c>
       <c r="D32" t="n">
-        <v>227.4450370878837</v>
+        <v>227.4450370878835</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1871746577893</v>
+        <v>249.187174657789</v>
       </c>
       <c r="F32" t="n">
-        <v>268.3589907457664</v>
+        <v>268.3589907457662</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2922586431889</v>
+        <v>270.2922586431887</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8423736214989</v>
+        <v>187.8423736214986</v>
       </c>
       <c r="I32" t="n">
-        <v>29.438338766127</v>
+        <v>29.43833876612675</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70599757878463</v>
+        <v>43.70599757878438</v>
       </c>
       <c r="T32" t="n">
-        <v>80.46466876913399</v>
+        <v>80.46466876913374</v>
       </c>
       <c r="U32" t="n">
-        <v>110.685794885981</v>
+        <v>110.6857948859807</v>
       </c>
       <c r="V32" t="n">
-        <v>191.9587933258531</v>
+        <v>191.9587933258529</v>
       </c>
       <c r="W32" t="n">
-        <v>217.25889280381</v>
+        <v>217.2588928038098</v>
       </c>
       <c r="X32" t="n">
-        <v>236.5591510365566</v>
+        <v>236.5591510365564</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.9557488327554</v>
+        <v>247.9557488327551</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326565</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.06912696037108</v>
+        <v>40.06912696037082</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26912180577156</v>
+        <v>26.26912180577131</v>
       </c>
       <c r="D34" t="n">
-        <v>9.890486203349951</v>
+        <v>9.890486203349695</v>
       </c>
       <c r="E34" t="n">
-        <v>8.8382360591294</v>
+        <v>8.838236059129144</v>
       </c>
       <c r="F34" t="n">
-        <v>9.305160387315709</v>
+        <v>9.305160387315453</v>
       </c>
       <c r="G34" t="n">
-        <v>25.57986310866355</v>
+        <v>25.57986310866329</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12823073135397</v>
+        <v>16.12823073135371</v>
       </c>
       <c r="I34" t="n">
-        <v>1.110325916183314</v>
+        <v>1.110325916183058</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.375875534600624</v>
+        <v>6.375875534600368</v>
       </c>
       <c r="S34" t="n">
-        <v>69.92197693318437</v>
+        <v>69.92197693318411</v>
       </c>
       <c r="T34" t="n">
-        <v>89.19647561531301</v>
+        <v>89.19647561531275</v>
       </c>
       <c r="U34" t="n">
-        <v>142.6676490786262</v>
+        <v>142.6676490786259</v>
       </c>
       <c r="V34" t="n">
-        <v>116.4772633599967</v>
+        <v>116.4772633599964</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6441494306099</v>
+        <v>141.6441494306097</v>
       </c>
       <c r="X34" t="n">
-        <v>87.28925142641305</v>
+        <v>87.28925142641279</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.16411918248073</v>
+        <v>78.16411918248048</v>
       </c>
     </row>
     <row r="35">
@@ -3360,10 +3360,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>84.37298759326568</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.7437828235484</v>
+        <v>229.7437828235482</v>
       </c>
       <c r="C41" t="n">
-        <v>217.7550997812302</v>
+        <v>217.7550997812299</v>
       </c>
       <c r="D41" t="n">
-        <v>208.7364038257581</v>
+        <v>208.7364038257579</v>
       </c>
       <c r="E41" t="n">
-        <v>230.4785413956637</v>
+        <v>230.4785413956634</v>
       </c>
       <c r="F41" t="n">
-        <v>249.6503574836408</v>
+        <v>163.1041998361488</v>
       </c>
       <c r="G41" t="n">
-        <v>251.5836253810634</v>
+        <v>251.5836253810631</v>
       </c>
       <c r="H41" t="n">
-        <v>93.31728821587868</v>
+        <v>169.133740359373</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.72970550400117</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.99736431665906</v>
+        <v>24.9973643166588</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700842</v>
+        <v>61.75603550700816</v>
       </c>
       <c r="U41" t="n">
-        <v>91.97716162385538</v>
+        <v>91.97716162385512</v>
       </c>
       <c r="V41" t="n">
-        <v>173.2501600637275</v>
+        <v>173.2501600637273</v>
       </c>
       <c r="W41" t="n">
-        <v>198.5502595416845</v>
+        <v>198.5502595416842</v>
       </c>
       <c r="X41" t="n">
-        <v>217.8505177744311</v>
+        <v>217.8505177744308</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.2471155706298</v>
+        <v>229.2471155706296</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824551</v>
+        <v>21.36049369824525</v>
       </c>
       <c r="C43" t="n">
-        <v>7.560488543645988</v>
+        <v>7.560488543645732</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.871229846537972</v>
+        <v>6.871229846537716</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105879</v>
+        <v>51.21334367105854</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318743</v>
+        <v>70.48784235318718</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9590158165006</v>
+        <v>123.9590158165003</v>
       </c>
       <c r="V43" t="n">
-        <v>97.7686300978711</v>
+        <v>97.76863009787084</v>
       </c>
       <c r="W43" t="n">
-        <v>122.9355161684844</v>
+        <v>122.9355161684841</v>
       </c>
       <c r="X43" t="n">
-        <v>68.58061816428747</v>
+        <v>68.58061816428722</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.45548592035516</v>
+        <v>59.4554859203549</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229.7437828235484</v>
+        <v>229.7437828235481</v>
       </c>
       <c r="C44" t="n">
-        <v>217.7550997812302</v>
+        <v>141.9386476377393</v>
       </c>
       <c r="D44" t="n">
-        <v>208.7364038257581</v>
+        <v>208.7364038257579</v>
       </c>
       <c r="E44" t="n">
-        <v>143.932383748168</v>
+        <v>230.4785413956634</v>
       </c>
       <c r="F44" t="n">
-        <v>249.6503574836408</v>
+        <v>249.6503574836406</v>
       </c>
       <c r="G44" t="n">
-        <v>251.5836253810634</v>
+        <v>251.5836253810631</v>
       </c>
       <c r="H44" t="n">
-        <v>169.1337403593733</v>
+        <v>169.133740359373</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400143</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.99736431665906</v>
+        <v>24.99736431665877</v>
       </c>
       <c r="T44" t="n">
-        <v>61.75603550700842</v>
+        <v>61.75603550700814</v>
       </c>
       <c r="U44" t="n">
-        <v>91.97716162385538</v>
+        <v>91.9771616238551</v>
       </c>
       <c r="V44" t="n">
-        <v>173.2501600637275</v>
+        <v>173.2501600637273</v>
       </c>
       <c r="W44" t="n">
-        <v>198.5502595416845</v>
+        <v>198.5502595416842</v>
       </c>
       <c r="X44" t="n">
-        <v>217.8505177744311</v>
+        <v>217.8505177744308</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.2471155706298</v>
+        <v>229.2471155706295</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.36049369824551</v>
+        <v>21.36049369824522</v>
       </c>
       <c r="C46" t="n">
-        <v>7.560488543645988</v>
+        <v>7.560488543645704</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.871229846537972</v>
+        <v>6.871229846537688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.21334367105879</v>
+        <v>51.21334367105851</v>
       </c>
       <c r="T46" t="n">
-        <v>70.48784235318743</v>
+        <v>70.48784235318715</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9590158165006</v>
+        <v>123.9590158165003</v>
       </c>
       <c r="V46" t="n">
-        <v>97.7686300978711</v>
+        <v>97.76863009787081</v>
       </c>
       <c r="W46" t="n">
-        <v>122.9355161684844</v>
+        <v>122.9355161684841</v>
       </c>
       <c r="X46" t="n">
-        <v>68.58061816428747</v>
+        <v>68.58061816428719</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.45548592035516</v>
+        <v>59.45548592035487</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>460.1627405482465</v>
+        <v>536.2205322044538</v>
       </c>
       <c r="C2" t="n">
-        <v>460.1627405482465</v>
+        <v>536.2205322044538</v>
       </c>
       <c r="D2" t="n">
-        <v>460.1627405482465</v>
+        <v>536.2205322044538</v>
       </c>
       <c r="E2" t="n">
-        <v>460.1627405482465</v>
+        <v>536.2205322044538</v>
       </c>
       <c r="F2" t="n">
-        <v>224.737706914206</v>
+        <v>526.1097455550282</v>
       </c>
       <c r="G2" t="n">
-        <v>212.674124408798</v>
+        <v>514.0461630496202</v>
       </c>
       <c r="H2" t="n">
         <v>212.674124408798</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="J2" t="n">
-        <v>39.85692561759405</v>
+        <v>111.8554698903996</v>
       </c>
       <c r="K2" t="n">
-        <v>245.7966482385286</v>
+        <v>351.9958419351824</v>
       </c>
       <c r="L2" t="n">
-        <v>593.6820213234748</v>
+        <v>699.8812150201286</v>
       </c>
       <c r="M2" t="n">
-        <v>986.9211875765627</v>
+        <v>1093.120381273216</v>
       </c>
       <c r="N2" t="n">
-        <v>1365.252546264278</v>
+        <v>1471.451739960932</v>
       </c>
       <c r="O2" t="n">
-        <v>1670.257130737112</v>
+        <v>1764.689384423646</v>
       </c>
       <c r="P2" t="n">
-        <v>1898.414027193166</v>
+        <v>1992.846280879699</v>
       </c>
       <c r="Q2" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879699</v>
       </c>
       <c r="R2" t="n">
-        <v>1902.207994375556</v>
+        <v>1902.207994375552</v>
       </c>
       <c r="S2" t="n">
-        <v>1714.97901900591</v>
+        <v>1714.979019005906</v>
       </c>
       <c r="T2" t="n">
-        <v>1490.620072736921</v>
+        <v>1490.620072736917</v>
       </c>
       <c r="U2" t="n">
-        <v>1235.734736450915</v>
+        <v>1235.734736450911</v>
       </c>
       <c r="V2" t="n">
-        <v>1235.734736450915</v>
+        <v>898.7554623468527</v>
       </c>
       <c r="W2" t="n">
-        <v>1235.734736450915</v>
+        <v>536.2205322044538</v>
       </c>
       <c r="X2" t="n">
-        <v>853.7045959724085</v>
+        <v>536.2205322044538</v>
       </c>
       <c r="Y2" t="n">
-        <v>460.1627405482465</v>
+        <v>536.2205322044538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>919.1696861196382</v>
+        <v>754.2486917273875</v>
       </c>
       <c r="C3" t="n">
-        <v>757.4660133605929</v>
+        <v>592.5450189683422</v>
       </c>
       <c r="D3" t="n">
-        <v>618.627376350805</v>
+        <v>453.7063819585543</v>
       </c>
       <c r="E3" t="n">
-        <v>471.5993664076761</v>
+        <v>453.7063819585543</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9055683575505</v>
+        <v>319.0125839084286</v>
       </c>
       <c r="G3" t="n">
-        <v>208.177068380835</v>
+        <v>190.2840839317132</v>
       </c>
       <c r="H3" t="n">
-        <v>108.2392109275331</v>
+        <v>90.34622647841123</v>
       </c>
       <c r="I3" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="J3" t="n">
-        <v>39.85692561759405</v>
+        <v>100.1110721507001</v>
       </c>
       <c r="K3" t="n">
-        <v>39.85692561759405</v>
+        <v>329.6016247108888</v>
       </c>
       <c r="L3" t="n">
-        <v>320.2876027919017</v>
+        <v>695.4234698810044</v>
       </c>
       <c r="M3" t="n">
-        <v>805.3209563021281</v>
+        <v>695.4234698810044</v>
       </c>
       <c r="N3" t="n">
-        <v>1298.550410819855</v>
+        <v>1188.65292439873</v>
       </c>
       <c r="O3" t="n">
-        <v>1690.750361604005</v>
+        <v>1580.852875182881</v>
       </c>
       <c r="P3" t="n">
-        <v>1992.846280879703</v>
+        <v>1835.074651094105</v>
       </c>
       <c r="Q3" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879699</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.062011974648</v>
+        <v>1933.062011974645</v>
       </c>
       <c r="S3" t="n">
-        <v>1780.262524987389</v>
+        <v>1780.262524987385</v>
       </c>
       <c r="T3" t="n">
-        <v>1591.577421153374</v>
+        <v>1591.57742115337</v>
       </c>
       <c r="U3" t="n">
-        <v>1373.082628751684</v>
+        <v>1373.08262875168</v>
       </c>
       <c r="V3" t="n">
-        <v>1144.687006200018</v>
+        <v>1144.687006200014</v>
       </c>
       <c r="W3" t="n">
-        <v>1144.687006200018</v>
+        <v>1144.687006200014</v>
       </c>
       <c r="X3" t="n">
-        <v>1144.687006200018</v>
+        <v>946.7700180778087</v>
       </c>
       <c r="Y3" t="n">
-        <v>952.1656798495966</v>
+        <v>754.2486917273875</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="C4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="D4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="E4" t="n">
-        <v>565.5176122071157</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="F4" t="n">
-        <v>413.0369572328929</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="G4" t="n">
-        <v>244.1172086007428</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="H4" t="n">
-        <v>244.1172086007428</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="I4" t="n">
-        <v>99.91416420342134</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46111336223746</v>
+        <v>73.4611133622374</v>
       </c>
       <c r="L4" t="n">
         <v>174.0681927624969</v>
       </c>
       <c r="M4" t="n">
-        <v>292.0616988900987</v>
+        <v>292.0616988900986</v>
       </c>
       <c r="N4" t="n">
-        <v>410.4840406396991</v>
+        <v>410.484040639699</v>
       </c>
       <c r="O4" t="n">
         <v>508.9476871353887</v>
       </c>
       <c r="P4" t="n">
-        <v>571.9161708635265</v>
+        <v>571.9161708635264</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.9161708635265</v>
+        <v>559.192280284516</v>
       </c>
       <c r="R4" t="n">
-        <v>571.9161708635265</v>
+        <v>559.192280284516</v>
       </c>
       <c r="S4" t="n">
-        <v>571.9161708635265</v>
+        <v>559.192280284516</v>
       </c>
       <c r="T4" t="n">
-        <v>571.9161708635265</v>
+        <v>326.0133271001948</v>
       </c>
       <c r="U4" t="n">
-        <v>571.9161708635265</v>
+        <v>326.0133271001948</v>
       </c>
       <c r="V4" t="n">
-        <v>571.9161708635265</v>
+        <v>326.0133271001948</v>
       </c>
       <c r="W4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="X4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759398</v>
       </c>
       <c r="Y4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759398</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>401.0507283179805</v>
+        <v>789.6382890690115</v>
       </c>
       <c r="C5" t="n">
-        <v>401.0507283179805</v>
+        <v>789.6382890690115</v>
       </c>
       <c r="D5" t="n">
-        <v>401.0507283179805</v>
+        <v>789.6382890690115</v>
       </c>
       <c r="E5" t="n">
-        <v>401.0507283179805</v>
+        <v>394.8525691751183</v>
       </c>
       <c r="F5" t="n">
-        <v>390.9399416685549</v>
+        <v>384.7417825256927</v>
       </c>
       <c r="G5" t="n">
-        <v>39.85692561759405</v>
+        <v>372.6782000202847</v>
       </c>
       <c r="H5" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="I5" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="J5" t="n">
-        <v>111.8554698903997</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="K5" t="n">
-        <v>351.9958419351825</v>
+        <v>279.9972976623768</v>
       </c>
       <c r="L5" t="n">
-        <v>593.6820213234748</v>
+        <v>627.882670747323</v>
       </c>
       <c r="M5" t="n">
-        <v>986.9211875765627</v>
+        <v>1021.121837000411</v>
       </c>
       <c r="N5" t="n">
-        <v>1365.252546264278</v>
+        <v>1399.453195688127</v>
       </c>
       <c r="O5" t="n">
-        <v>1670.257130737112</v>
+        <v>1704.457780160961</v>
       </c>
       <c r="P5" t="n">
-        <v>1898.414027193166</v>
+        <v>1898.414027193162</v>
       </c>
       <c r="Q5" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879699</v>
       </c>
       <c r="R5" t="n">
-        <v>1992.846280879703</v>
+        <v>1902.207994375553</v>
       </c>
       <c r="S5" t="n">
-        <v>1992.846280879703</v>
+        <v>1714.979019005907</v>
       </c>
       <c r="T5" t="n">
-        <v>1768.487334610714</v>
+        <v>1714.979019005907</v>
       </c>
       <c r="U5" t="n">
-        <v>1513.601998324708</v>
+        <v>1714.979019005907</v>
       </c>
       <c r="V5" t="n">
-        <v>1176.622724220649</v>
+        <v>1377.999744901848</v>
       </c>
       <c r="W5" t="n">
-        <v>1176.622724220649</v>
+        <v>1015.464814759449</v>
       </c>
       <c r="X5" t="n">
-        <v>794.5925837421426</v>
+        <v>1015.464814759449</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.0507283179805</v>
+        <v>789.6382890690115</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>740.1154721356604</v>
+        <v>583.2202638231958</v>
       </c>
       <c r="C6" t="n">
-        <v>578.4117993766151</v>
+        <v>421.5165910641504</v>
       </c>
       <c r="D6" t="n">
-        <v>439.5731623668272</v>
+        <v>421.5165910641504</v>
       </c>
       <c r="E6" t="n">
-        <v>292.5451524236984</v>
+        <v>274.4885811210216</v>
       </c>
       <c r="F6" t="n">
-        <v>157.8513543735728</v>
+        <v>139.794783070896</v>
       </c>
       <c r="G6" t="n">
-        <v>157.8513543735728</v>
+        <v>139.794783070896</v>
       </c>
       <c r="H6" t="n">
-        <v>57.91349692027082</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="I6" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="J6" t="n">
-        <v>100.1110721507002</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="K6" t="n">
-        <v>329.6016247108889</v>
+        <v>269.3474781777826</v>
       </c>
       <c r="L6" t="n">
-        <v>695.4234698810045</v>
+        <v>635.1693233478983</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.456823391231</v>
+        <v>1120.202676858125</v>
       </c>
       <c r="N6" t="n">
-        <v>1673.686277908957</v>
+        <v>1140.778781034257</v>
       </c>
       <c r="O6" t="n">
-        <v>1673.686277908957</v>
+        <v>1532.978731818408</v>
       </c>
       <c r="P6" t="n">
-        <v>1835.074651094108</v>
+        <v>1835.074651094105</v>
       </c>
       <c r="Q6" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879699</v>
       </c>
       <c r="R6" t="n">
-        <v>1933.062011974648</v>
+        <v>1933.062011974645</v>
       </c>
       <c r="S6" t="n">
-        <v>1780.262524987389</v>
+        <v>1780.262524987385</v>
       </c>
       <c r="T6" t="n">
-        <v>1780.262524987389</v>
+        <v>1780.262524987385</v>
       </c>
       <c r="U6" t="n">
-        <v>1561.767732585699</v>
+        <v>1561.767732585696</v>
       </c>
       <c r="V6" t="n">
-        <v>1333.372110034033</v>
+        <v>1333.372110034029</v>
       </c>
       <c r="W6" t="n">
-        <v>1092.056241267343</v>
+        <v>1133.078021077083</v>
       </c>
       <c r="X6" t="n">
-        <v>1092.056241267343</v>
+        <v>935.1610329548779</v>
       </c>
       <c r="Y6" t="n">
-        <v>899.5349149169214</v>
+        <v>742.6397066044567</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="C7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="D7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="E7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="F7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="G7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="H7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="I7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="J7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46111336223746</v>
+        <v>73.4611133622374</v>
       </c>
       <c r="L7" t="n">
         <v>174.0681927624969</v>
       </c>
       <c r="M7" t="n">
-        <v>292.0616988900987</v>
+        <v>292.0616988900986</v>
       </c>
       <c r="N7" t="n">
-        <v>410.4840406396991</v>
+        <v>410.484040639699</v>
       </c>
       <c r="O7" t="n">
         <v>508.9476871353887</v>
       </c>
       <c r="P7" t="n">
-        <v>571.9161708635265</v>
+        <v>571.9161708635264</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.9161708635265</v>
+        <v>571.9161708635264</v>
       </c>
       <c r="R7" t="n">
-        <v>571.9161708635265</v>
+        <v>571.9161708635264</v>
       </c>
       <c r="S7" t="n">
-        <v>571.9161708635265</v>
+        <v>571.9161708635264</v>
       </c>
       <c r="T7" t="n">
-        <v>571.9161708635265</v>
+        <v>571.9161708635264</v>
       </c>
       <c r="U7" t="n">
-        <v>571.9161708635265</v>
+        <v>571.9161708635264</v>
       </c>
       <c r="V7" t="n">
-        <v>557.2657912048192</v>
+        <v>326.0133271001948</v>
       </c>
       <c r="W7" t="n">
-        <v>271.1093897222183</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="X7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759399</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1460.81061304377</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="C8" t="n">
-        <v>1460.81061304377</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D8" t="n">
-        <v>1460.81061304377</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E8" t="n">
-        <v>1066.024893149876</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>651.8737024600466</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186168</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>1823.345543186168</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W8" t="n">
-        <v>1460.81061304377</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="X8" t="n">
-        <v>1460.81061304377</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="Y8" t="n">
-        <v>1460.81061304377</v>
+        <v>959.1037538931058</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>571.2329233000498</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>409.5292505410046</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4884,22 +4884,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1997.982068107998</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1809.296964273983</v>
       </c>
       <c r="U9" t="n">
-        <v>1699.943945333632</v>
+        <v>1590.802171872293</v>
       </c>
       <c r="V9" t="n">
-        <v>1471.548322781966</v>
+        <v>1362.406549320627</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1121.090680553937</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>923.1736924317319</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>730.6523660813107</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>363.4246597075721</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4990,22 +4990,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V10" t="n">
-        <v>515.4336739462533</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1331.033133305693</v>
+        <v>860.6707785707658</v>
       </c>
       <c r="C11" t="n">
-        <v>1063.675299394267</v>
+        <v>860.6707785707658</v>
       </c>
       <c r="D11" t="n">
-        <v>907.8178081728629</v>
+        <v>602.4227385537556</v>
       </c>
       <c r="E11" t="n">
-        <v>627.6080130347361</v>
+        <v>349.1685934963917</v>
       </c>
       <c r="F11" t="n">
-        <v>627.6080130347361</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0799512446904</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="H11" t="n">
-        <v>107.8346015977661</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="I11" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="J11" t="n">
-        <v>233.8877356882608</v>
+        <v>233.8877356882607</v>
       </c>
       <c r="K11" t="n">
-        <v>586.3239715861702</v>
+        <v>474.0281077330435</v>
       </c>
       <c r="L11" t="n">
-        <v>934.2093446711165</v>
+        <v>821.9134808179897</v>
       </c>
       <c r="M11" t="n">
-        <v>1327.448510924204</v>
+        <v>1215.152647071078</v>
       </c>
       <c r="N11" t="n">
-        <v>1705.77986961192</v>
+        <v>1593.484005758793</v>
       </c>
       <c r="O11" t="n">
         <v>2010.784454084754</v>
@@ -5060,31 +5060,31 @@
         <v>2351.237214393934</v>
       </c>
       <c r="Q11" t="n">
-        <v>2456.205098866011</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="R11" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="S11" t="n">
-        <v>2407.013327502544</v>
+        <v>2407.013327502541</v>
       </c>
       <c r="T11" t="n">
-        <v>2297.230305989322</v>
+        <v>2297.230305989319</v>
       </c>
       <c r="U11" t="n">
-        <v>2156.920894459082</v>
+        <v>2156.920894459079</v>
       </c>
       <c r="V11" t="n">
-        <v>2156.920894459082</v>
+        <v>1934.517545110787</v>
       </c>
       <c r="W11" t="n">
-        <v>2156.920894459082</v>
+        <v>1686.558539724154</v>
       </c>
       <c r="X11" t="n">
-        <v>1889.466678736342</v>
+        <v>1419.104324001414</v>
       </c>
       <c r="Y11" t="n">
-        <v>1610.500748067946</v>
+        <v>1140.138393333018</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161585</v>
       </c>
       <c r="C12" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571133</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473253</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424715</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923458</v>
       </c>
       <c r="G12" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156304</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="I12" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="J12" t="n">
         <v>109.8474740954346</v>
@@ -5133,37 +5133,37 @@
         <v>1701.458871459088</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055129</v>
       </c>
       <c r="P12" t="n">
-        <v>2395.754741518936</v>
+        <v>2321.894748330827</v>
       </c>
       <c r="Q12" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="R12" t="n">
-        <v>2479.666378116424</v>
+        <v>2419.882109211366</v>
       </c>
       <c r="S12" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.082622224107</v>
       </c>
       <c r="T12" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390092</v>
       </c>
       <c r="U12" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988402</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436736</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670046</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547841</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974195</v>
       </c>
     </row>
     <row r="13">
@@ -5176,43 +5176,43 @@
         <v>347.2348244456223</v>
       </c>
       <c r="C13" t="n">
-        <v>292.1947796630689</v>
+        <v>292.1947796630691</v>
       </c>
       <c r="D13" t="n">
-        <v>253.698811246598</v>
+        <v>253.6988112465984</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2657217636834</v>
+        <v>216.2657217636836</v>
       </c>
       <c r="F13" t="n">
-        <v>178.360991545227</v>
+        <v>178.3609915452271</v>
       </c>
       <c r="G13" t="n">
         <v>124.0171676688433</v>
       </c>
       <c r="H13" t="n">
-        <v>79.22044720388354</v>
+        <v>79.2204472038835</v>
       </c>
       <c r="I13" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="J13" t="n">
-        <v>103.0270918774856</v>
+        <v>103.0270918774859</v>
       </c>
       <c r="K13" t="n">
-        <v>248.9271434752556</v>
+        <v>248.9271434752562</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8300867286417</v>
+        <v>461.8300867286421</v>
       </c>
       <c r="M13" t="n">
-        <v>692.1194567093701</v>
+        <v>692.1194567093703</v>
       </c>
       <c r="N13" t="n">
-        <v>922.837662312097</v>
+        <v>922.8376623120973</v>
       </c>
       <c r="O13" t="n">
-        <v>1133.597172660913</v>
+        <v>1133.597172660914</v>
       </c>
       <c r="P13" t="n">
         <v>1308.861520242178</v>
@@ -5221,28 +5221,28 @@
         <v>1383.386935841785</v>
       </c>
       <c r="R13" t="n">
-        <v>1348.441079211929</v>
+        <v>1348.44107921193</v>
       </c>
       <c r="S13" t="n">
-        <v>1249.307241371383</v>
+        <v>1249.307241371384</v>
       </c>
       <c r="T13" t="n">
         <v>1130.704212942829</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0898981876951</v>
+        <v>958.0898981876956</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9305185018842</v>
+        <v>811.9305185018845</v>
       </c>
       <c r="W13" t="n">
         <v>640.35004177505</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6735024261923</v>
+        <v>523.6735024261922</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742357</v>
+        <v>416.2142683742356</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1185.431318985809</v>
+        <v>1139.636709239161</v>
       </c>
       <c r="C14" t="n">
-        <v>1185.431318985809</v>
+        <v>872.2788753277348</v>
       </c>
       <c r="D14" t="n">
-        <v>927.1832789687994</v>
+        <v>614.0308353107248</v>
       </c>
       <c r="E14" t="n">
-        <v>927.1832789687994</v>
+        <v>614.0308353107248</v>
       </c>
       <c r="F14" t="n">
-        <v>627.6080130347361</v>
+        <v>314.4555693766615</v>
       </c>
       <c r="G14" t="n">
-        <v>326.0799512446905</v>
+        <v>267.8386772092528</v>
       </c>
       <c r="H14" t="n">
-        <v>107.8346015977661</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="I14" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J14" t="n">
         <v>233.8877356882607</v>
@@ -5291,37 +5291,37 @@
         <v>1705.77986961192</v>
       </c>
       <c r="O14" t="n">
-        <v>2123.08031793788</v>
+        <v>2044.781364120704</v>
       </c>
       <c r="P14" t="n">
-        <v>2361.772845179474</v>
+        <v>2272.938260576757</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.205098866011</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="R14" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="S14" t="n">
-        <v>2407.013327502544</v>
+        <v>2407.013327502541</v>
       </c>
       <c r="T14" t="n">
-        <v>2297.230305989322</v>
+        <v>2297.230305989319</v>
       </c>
       <c r="U14" t="n">
-        <v>2156.920894459082</v>
+        <v>2156.920894459079</v>
       </c>
       <c r="V14" t="n">
-        <v>1934.51754511079</v>
+        <v>1934.517545110787</v>
       </c>
       <c r="W14" t="n">
-        <v>1743.864864416458</v>
+        <v>1686.558539724154</v>
       </c>
       <c r="X14" t="n">
-        <v>1743.864864416458</v>
+        <v>1419.104324001414</v>
       </c>
       <c r="Y14" t="n">
-        <v>1464.898933748062</v>
+        <v>1419.104324001414</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>840.3334774161617</v>
+        <v>840.333477416159</v>
       </c>
       <c r="C15" t="n">
-        <v>678.6298046571164</v>
+        <v>678.6298046571137</v>
       </c>
       <c r="D15" t="n">
-        <v>539.7911676473285</v>
+        <v>539.7911676473258</v>
       </c>
       <c r="E15" t="n">
-        <v>392.7631577041997</v>
+        <v>392.763157704197</v>
       </c>
       <c r="F15" t="n">
-        <v>258.0693596540741</v>
+        <v>258.0693596540714</v>
       </c>
       <c r="G15" t="n">
         <v>217.9134703255694</v>
       </c>
       <c r="H15" t="n">
-        <v>117.9756128722675</v>
+        <v>117.9756128722674</v>
       </c>
       <c r="I15" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J15" t="n">
         <v>109.8474740954346</v>
@@ -5367,40 +5367,40 @@
         <v>1190.193225335966</v>
       </c>
       <c r="N15" t="n">
-        <v>1627.598878270982</v>
+        <v>1627.598878270979</v>
       </c>
       <c r="O15" t="n">
-        <v>2019.798829055133</v>
+        <v>2019.79882905513</v>
       </c>
       <c r="P15" t="n">
-        <v>2321.89474833083</v>
+        <v>2321.894748330827</v>
       </c>
       <c r="Q15" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="R15" t="n">
-        <v>2419.882109211369</v>
+        <v>2419.882109211367</v>
       </c>
       <c r="S15" t="n">
-        <v>2267.08262222411</v>
+        <v>2267.082622224107</v>
       </c>
       <c r="T15" t="n">
-        <v>2078.397518390095</v>
+        <v>2078.397518390093</v>
       </c>
       <c r="U15" t="n">
-        <v>1859.902725988405</v>
+        <v>1859.902725988403</v>
       </c>
       <c r="V15" t="n">
-        <v>1631.507103436739</v>
+        <v>1631.507103436737</v>
       </c>
       <c r="W15" t="n">
-        <v>1390.191234670049</v>
+        <v>1390.191234670046</v>
       </c>
       <c r="X15" t="n">
-        <v>1192.274246547844</v>
+        <v>1192.274246547841</v>
       </c>
       <c r="Y15" t="n">
-        <v>999.7529201974227</v>
+        <v>999.7529201974199</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2348244456225</v>
+        <v>347.2348244456222</v>
       </c>
       <c r="C16" t="n">
-        <v>292.1947796630692</v>
+        <v>292.1947796630689</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6988112465983</v>
+        <v>253.6988112465981</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2657217636835</v>
+        <v>216.2657217636833</v>
       </c>
       <c r="F16" t="n">
-        <v>178.360991545227</v>
+        <v>178.3609915452269</v>
       </c>
       <c r="G16" t="n">
-        <v>124.0171676688434</v>
+        <v>124.0171676688433</v>
       </c>
       <c r="H16" t="n">
-        <v>79.22044720388358</v>
+        <v>79.22044720388348</v>
       </c>
       <c r="I16" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J16" t="n">
         <v>103.0270918774858</v>
@@ -5443,43 +5443,43 @@
         <v>461.830086728642</v>
       </c>
       <c r="M16" t="n">
-        <v>692.1194567093703</v>
+        <v>692.1194567093704</v>
       </c>
       <c r="N16" t="n">
-        <v>922.837662312098</v>
+        <v>922.8376623120975</v>
       </c>
       <c r="O16" t="n">
         <v>1133.597172660914</v>
       </c>
       <c r="P16" t="n">
-        <v>1308.861520242179</v>
+        <v>1308.861520242178</v>
       </c>
       <c r="Q16" t="n">
-        <v>1383.386935841786</v>
+        <v>1383.386935841785</v>
       </c>
       <c r="R16" t="n">
-        <v>1348.441079211931</v>
+        <v>1348.44107921193</v>
       </c>
       <c r="S16" t="n">
-        <v>1249.307241371385</v>
+        <v>1249.307241371384</v>
       </c>
       <c r="T16" t="n">
-        <v>1130.70421294283</v>
+        <v>1130.704212942829</v>
       </c>
       <c r="U16" t="n">
-        <v>958.089898187696</v>
+        <v>958.0898981876956</v>
       </c>
       <c r="V16" t="n">
-        <v>811.930518501885</v>
+        <v>811.9305185018845</v>
       </c>
       <c r="W16" t="n">
-        <v>640.3500417750504</v>
+        <v>640.35004177505</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6735024261925</v>
+        <v>523.6735024261922</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.214268374236</v>
+        <v>416.2142683742356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.912468951886</v>
+        <v>1325.912468951884</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.709846338099</v>
+        <v>1116.709846338097</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187286</v>
+        <v>916.617017618727</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782415</v>
+        <v>694.56243377824</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418179</v>
+        <v>453.1423791418165</v>
       </c>
       <c r="G17" t="n">
-        <v>209.7695286494119</v>
+        <v>209.7695286494106</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012737</v>
+        <v>49.67939030012625</v>
       </c>
       <c r="I17" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="J17" t="n">
-        <v>242.7233851412948</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K17" t="n">
-        <v>482.8637571860775</v>
+        <v>361.7322438799168</v>
       </c>
       <c r="L17" t="n">
-        <v>830.7491302710238</v>
+        <v>709.6176169648631</v>
       </c>
       <c r="M17" t="n">
-        <v>1393.282082970055</v>
+        <v>1272.150569663894</v>
       </c>
       <c r="N17" t="n">
-        <v>1771.613441657771</v>
+        <v>1771.613441657767</v>
       </c>
       <c r="O17" t="n">
-        <v>2076.618026130604</v>
+        <v>2076.618026130601</v>
       </c>
       <c r="P17" t="n">
-        <v>2304.774922586658</v>
+        <v>2304.774922586655</v>
       </c>
       <c r="Q17" t="n">
-        <v>2399.207176273195</v>
+        <v>2399.207176273192</v>
       </c>
       <c r="R17" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.168538800184</v>
+        <v>2465.168538800181</v>
       </c>
       <c r="T17" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.540728584598</v>
       </c>
       <c r="U17" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528351998</v>
       </c>
       <c r="V17" t="n">
-        <v>2167.138390301348</v>
+        <v>2167.138390301345</v>
       </c>
       <c r="W17" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212353</v>
       </c>
       <c r="X17" t="n">
-        <v>1768.035591787255</v>
+        <v>1768.035591787253</v>
       </c>
       <c r="Y17" t="n">
-        <v>1547.224872416499</v>
+        <v>1547.224872416497</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>840.3334774161617</v>
+        <v>840.3334774161585</v>
       </c>
       <c r="C18" t="n">
-        <v>678.6298046571164</v>
+        <v>678.6298046571133</v>
       </c>
       <c r="D18" t="n">
-        <v>539.7911676473285</v>
+        <v>539.7911676473253</v>
       </c>
       <c r="E18" t="n">
-        <v>392.7631577041997</v>
+        <v>392.7631577041965</v>
       </c>
       <c r="F18" t="n">
-        <v>258.0693596540741</v>
+        <v>346.6419703022848</v>
       </c>
       <c r="G18" t="n">
         <v>217.9134703255694</v>
       </c>
       <c r="H18" t="n">
-        <v>117.9756128722675</v>
+        <v>117.9756128722674</v>
       </c>
       <c r="I18" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="J18" t="n">
-        <v>49.59332756232848</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K18" t="n">
-        <v>279.0838801225171</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L18" t="n">
-        <v>644.9057252926327</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.939078802859</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N18" t="n">
-        <v>1641.204724925981</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.404675710132</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P18" t="n">
-        <v>2335.50059498583</v>
+        <v>2395.754741518936</v>
       </c>
       <c r="Q18" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="R18" t="n">
-        <v>2419.882109211369</v>
+        <v>2419.882109211366</v>
       </c>
       <c r="S18" t="n">
-        <v>2267.08262222411</v>
+        <v>2267.082622224107</v>
       </c>
       <c r="T18" t="n">
-        <v>2078.397518390095</v>
+        <v>2078.397518390092</v>
       </c>
       <c r="U18" t="n">
-        <v>1859.902725988405</v>
+        <v>1859.902725988402</v>
       </c>
       <c r="V18" t="n">
-        <v>1631.507103436739</v>
+        <v>1631.507103436736</v>
       </c>
       <c r="W18" t="n">
-        <v>1390.191234670049</v>
+        <v>1390.191234670046</v>
       </c>
       <c r="X18" t="n">
-        <v>1192.274246547844</v>
+        <v>1192.274246547841</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.7529201974227</v>
+        <v>999.7529201974195</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="C19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="D19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="E19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="F19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="G19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="H19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="I19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="J19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232841</v>
       </c>
       <c r="K19" t="n">
-        <v>83.19751530697189</v>
+        <v>83.19751530697182</v>
       </c>
       <c r="L19" t="n">
-        <v>183.8045947072314</v>
+        <v>183.8045947072313</v>
       </c>
       <c r="M19" t="n">
         <v>301.7981008348331</v>
       </c>
       <c r="N19" t="n">
-        <v>420.2204425844335</v>
+        <v>420.2204425844334</v>
       </c>
       <c r="O19" t="n">
         <v>518.6840890801232</v>
       </c>
       <c r="P19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475181</v>
       </c>
       <c r="Q19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475181</v>
       </c>
       <c r="R19" t="n">
-        <v>585.5578919475194</v>
+        <v>585.5578919475181</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046129</v>
+        <v>544.5792654046119</v>
       </c>
       <c r="T19" t="n">
-        <v>484.1314482736978</v>
+        <v>484.1314482736968</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162037</v>
+        <v>369.6723448162029</v>
       </c>
       <c r="V19" t="n">
-        <v>281.6681764280323</v>
+        <v>281.6681764280316</v>
       </c>
       <c r="W19" t="n">
-        <v>168.2429109988374</v>
+        <v>168.2429109988369</v>
       </c>
       <c r="X19" t="n">
-        <v>109.7215829476192</v>
+        <v>109.7215829476188</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330229</v>
+        <v>60.41756019330208</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.912468951886</v>
+        <v>1325.912468951884</v>
       </c>
       <c r="C20" t="n">
-        <v>1116.709846338098</v>
+        <v>1116.709846338097</v>
       </c>
       <c r="D20" t="n">
-        <v>916.617017618728</v>
+        <v>916.6170176187268</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782409</v>
+        <v>694.5624337782398</v>
       </c>
       <c r="F20" t="n">
-        <v>453.1423791418173</v>
+        <v>453.1423791418163</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494113</v>
+        <v>209.7695286494104</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012646</v>
+        <v>49.67939030012626</v>
       </c>
       <c r="I20" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J20" t="n">
-        <v>290.8856582810773</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K20" t="n">
-        <v>700.3198167718033</v>
+        <v>394.0291725833605</v>
       </c>
       <c r="L20" t="n">
-        <v>1048.205189856749</v>
+        <v>741.9145456683068</v>
       </c>
       <c r="M20" t="n">
-        <v>1441.444356109837</v>
+        <v>1304.447498367338</v>
       </c>
       <c r="N20" t="n">
-        <v>1819.775714797553</v>
+        <v>1682.778857055054</v>
       </c>
       <c r="O20" t="n">
-        <v>2124.780299270387</v>
+        <v>1987.783441527888</v>
       </c>
       <c r="P20" t="n">
-        <v>2352.93719572644</v>
+        <v>2215.940337983941</v>
       </c>
       <c r="Q20" t="n">
-        <v>2447.369449412977</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="R20" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.168538800184</v>
+        <v>2465.168538800181</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.540728584598</v>
       </c>
       <c r="U20" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528351998</v>
       </c>
       <c r="V20" t="n">
-        <v>2167.138390301348</v>
+        <v>2167.138390301346</v>
       </c>
       <c r="W20" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212353</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.035591787255</v>
+        <v>1768.035591787252</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.224872416499</v>
+        <v>1547.224872416496</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.9060880643725</v>
+        <v>840.333477416159</v>
       </c>
       <c r="C21" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571137</v>
       </c>
       <c r="D21" t="n">
-        <v>628.3637782955393</v>
+        <v>559.9814929856002</v>
       </c>
       <c r="E21" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424715</v>
       </c>
       <c r="F21" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923458</v>
       </c>
       <c r="G21" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156304</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="I21" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J21" t="n">
         <v>109.8474740954346</v>
@@ -5841,40 +5841,40 @@
         <v>1190.193225335966</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.598878270982</v>
+        <v>1627.598878270979</v>
       </c>
       <c r="O21" t="n">
-        <v>2019.798829055133</v>
+        <v>2019.79882905513</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.89474833083</v>
+        <v>2321.894748330827</v>
       </c>
       <c r="Q21" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="R21" t="n">
-        <v>2479.666378116424</v>
+        <v>2419.882109211367</v>
       </c>
       <c r="S21" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.082622224107</v>
       </c>
       <c r="T21" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390093</v>
       </c>
       <c r="U21" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988403</v>
       </c>
       <c r="V21" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436737</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670046</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547841</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974199</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="C22" t="n">
-        <v>52.64650226376456</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="D22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="E22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="F22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="G22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="H22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="I22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="K22" t="n">
-        <v>87.10283444623026</v>
+        <v>83.19751530697184</v>
       </c>
       <c r="L22" t="n">
-        <v>187.7099138464898</v>
+        <v>183.8045947072313</v>
       </c>
       <c r="M22" t="n">
-        <v>305.7034199740915</v>
+        <v>301.7981008348331</v>
       </c>
       <c r="N22" t="n">
-        <v>424.1257617236919</v>
+        <v>424.1257617236909</v>
       </c>
       <c r="O22" t="n">
-        <v>522.5894082193815</v>
+        <v>522.5894082193805</v>
       </c>
       <c r="P22" t="n">
-        <v>585.5578919475194</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="Q22" t="n">
-        <v>585.5578919475194</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="R22" t="n">
-        <v>585.5578919475194</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="S22" t="n">
-        <v>544.5792654046129</v>
+        <v>544.579265404612</v>
       </c>
       <c r="T22" t="n">
-        <v>484.1314482736978</v>
+        <v>484.1314482736969</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6723448162037</v>
+        <v>369.672344816203</v>
       </c>
       <c r="V22" t="n">
-        <v>281.6681764280323</v>
+        <v>281.6681764280317</v>
       </c>
       <c r="W22" t="n">
-        <v>168.2429109988374</v>
+        <v>168.2429109988369</v>
       </c>
       <c r="X22" t="n">
-        <v>109.7215829476192</v>
+        <v>109.7215829476189</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330229</v>
+        <v>60.41756019330209</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.912468951886</v>
+        <v>1325.912468951884</v>
       </c>
       <c r="C23" t="n">
         <v>1116.709846338098</v>
       </c>
       <c r="D23" t="n">
-        <v>916.617017618728</v>
+        <v>916.6170176187272</v>
       </c>
       <c r="E23" t="n">
-        <v>694.5624337782409</v>
+        <v>694.5624337782402</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418173</v>
+        <v>453.1423791418167</v>
       </c>
       <c r="G23" t="n">
-        <v>209.7695286494113</v>
+        <v>209.7695286494109</v>
       </c>
       <c r="H23" t="n">
-        <v>49.67939030012646</v>
+        <v>49.67939030012626</v>
       </c>
       <c r="I23" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5918718351341</v>
+        <v>290.8856582810774</v>
       </c>
       <c r="K23" t="n">
-        <v>361.7322438799169</v>
+        <v>531.0260303258602</v>
       </c>
       <c r="L23" t="n">
-        <v>830.7491302710238</v>
+        <v>878.9114034108065</v>
       </c>
       <c r="M23" t="n">
-        <v>1393.282082970055</v>
+        <v>1272.150569663894</v>
       </c>
       <c r="N23" t="n">
-        <v>1771.613441657771</v>
+        <v>1650.48192835161</v>
       </c>
       <c r="O23" t="n">
-        <v>2076.618026130604</v>
+        <v>2124.780299270387</v>
       </c>
       <c r="P23" t="n">
-        <v>2304.774922586658</v>
+        <v>2352.937195726441</v>
       </c>
       <c r="Q23" t="n">
-        <v>2399.207176273195</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.168538800184</v>
+        <v>2465.168538800181</v>
       </c>
       <c r="T23" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.540728584599</v>
       </c>
       <c r="U23" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528351999</v>
       </c>
       <c r="V23" t="n">
-        <v>2167.138390301348</v>
+        <v>2167.138390301346</v>
       </c>
       <c r="W23" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212353</v>
       </c>
       <c r="X23" t="n">
-        <v>1768.035591787255</v>
+        <v>1768.035591787253</v>
       </c>
       <c r="Y23" t="n">
-        <v>1547.224872416499</v>
+        <v>1547.224872416497</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.9060880643725</v>
+        <v>840.333477416159</v>
       </c>
       <c r="C24" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571137</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473258</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3357683524106</v>
+        <v>392.763157704197</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6419703022849</v>
+        <v>258.0693596540714</v>
       </c>
       <c r="G24" t="n">
-        <v>217.9134703255694</v>
+        <v>129.340859677356</v>
       </c>
       <c r="H24" t="n">
-        <v>117.9756128722675</v>
+        <v>117.9756128722674</v>
       </c>
       <c r="I24" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J24" t="n">
         <v>109.8474740954346</v>
@@ -6072,46 +6072,46 @@
         <v>339.3380266556233</v>
       </c>
       <c r="L24" t="n">
-        <v>705.1598718257389</v>
+        <v>631.2998786376305</v>
       </c>
       <c r="M24" t="n">
-        <v>1190.193225335966</v>
+        <v>1116.333232147857</v>
       </c>
       <c r="N24" t="n">
-        <v>1627.598878270982</v>
+        <v>1627.598878270979</v>
       </c>
       <c r="O24" t="n">
-        <v>2019.798829055133</v>
+        <v>2019.79882905513</v>
       </c>
       <c r="P24" t="n">
-        <v>2321.89474833083</v>
+        <v>2321.894748330827</v>
       </c>
       <c r="Q24" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116421</v>
       </c>
       <c r="R24" t="n">
-        <v>2419.882109211369</v>
+        <v>2419.882109211367</v>
       </c>
       <c r="S24" t="n">
-        <v>2267.08262222411</v>
+        <v>2267.082622224107</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390093</v>
       </c>
       <c r="U24" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988403</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436737</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670046</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547841</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974199</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="C25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="D25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="E25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="F25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="G25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="H25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="I25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="K25" t="n">
-        <v>83.19751530697189</v>
+        <v>83.19751530697184</v>
       </c>
       <c r="L25" t="n">
-        <v>183.8045947072314</v>
+        <v>183.8045947072313</v>
       </c>
       <c r="M25" t="n">
         <v>301.7981008348331</v>
       </c>
       <c r="N25" t="n">
-        <v>420.2204425844335</v>
+        <v>420.2204425844334</v>
       </c>
       <c r="O25" t="n">
         <v>518.6840890801232</v>
@@ -6166,31 +6166,31 @@
         <v>581.652572808261</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="R25" t="n">
-        <v>585.5578919475194</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="S25" t="n">
-        <v>544.5792654046129</v>
+        <v>544.579265404612</v>
       </c>
       <c r="T25" t="n">
-        <v>484.1314482736978</v>
+        <v>484.1314482736969</v>
       </c>
       <c r="U25" t="n">
-        <v>369.6723448162037</v>
+        <v>369.672344816203</v>
       </c>
       <c r="V25" t="n">
-        <v>281.6681764280323</v>
+        <v>281.6681764280317</v>
       </c>
       <c r="W25" t="n">
-        <v>168.2429109988374</v>
+        <v>168.2429109988369</v>
       </c>
       <c r="X25" t="n">
-        <v>109.7215829476192</v>
+        <v>109.7215829476189</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330229</v>
+        <v>60.41756019330209</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1605.294287922456</v>
+        <v>1422.858215795353</v>
       </c>
       <c r="C26" t="n">
-        <v>1337.936454011029</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.39554881598</v>
+        <v>897.2523418669169</v>
       </c>
       <c r="E26" t="n">
-        <v>880.1857536778534</v>
+        <v>617.0425467287902</v>
       </c>
       <c r="F26" t="n">
-        <v>580.6104877437901</v>
+        <v>317.4672807947269</v>
       </c>
       <c r="G26" t="n">
-        <v>279.0824259537445</v>
+        <v>119.0783503422578</v>
       </c>
       <c r="H26" t="n">
-        <v>60.83707630682017</v>
+        <v>119.0783503422578</v>
       </c>
       <c r="I26" t="n">
         <v>60.83707630682017</v>
@@ -6236,13 +6236,13 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.911209915792</v>
+        <v>2053.911209915791</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241753</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P26" t="n">
-        <v>2811.664418550933</v>
+        <v>2811.664418550932</v>
       </c>
       <c r="Q26" t="n">
         <v>3018.392536090596</v>
@@ -6251,25 +6251,25 @@
         <v>3041.853815341009</v>
       </c>
       <c r="S26" t="n">
-        <v>3041.853815341009</v>
+        <v>2969.200764727129</v>
       </c>
       <c r="T26" t="n">
-        <v>3041.853815341009</v>
+        <v>2859.417743213907</v>
       </c>
       <c r="U26" t="n">
-        <v>2901.544403810769</v>
+        <v>2719.108331683667</v>
       </c>
       <c r="V26" t="n">
-        <v>2679.141054462477</v>
+        <v>2496.704982335375</v>
       </c>
       <c r="W26" t="n">
-        <v>2431.182049075844</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.727833353104</v>
+        <v>1981.291761226002</v>
       </c>
       <c r="Y26" t="n">
-        <v>1884.761902684708</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C27" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D27" t="n">
-        <v>639.6075270400311</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E27" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F27" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G27" t="n">
-        <v>229.1572190700612</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H27" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I27" t="n">
         <v>60.83707630682017</v>
@@ -6336,19 +6336,19 @@
         <v>2163.501260322693</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W27" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X27" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.478573190114</v>
+        <v>358.4785731901145</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075609</v>
+        <v>303.4385284075612</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910901</v>
+        <v>264.9425599910903</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081754</v>
+        <v>227.5094705081756</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897189</v>
+        <v>189.6047402897191</v>
       </c>
       <c r="G28" t="n">
         <v>135.2609164133355</v>
@@ -6382,13 +6382,13 @@
         <v>60.83707630682017</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2708406219777</v>
+        <v>114.2708406219775</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197479</v>
+        <v>260.1708922197476</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731339</v>
+        <v>473.0738354731334</v>
       </c>
       <c r="M28" t="n">
         <v>703.3632054538621</v>
@@ -6412,22 +6412,22 @@
         <v>1260.550990115876</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.947961687321</v>
+        <v>1141.947961687322</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321874</v>
+        <v>969.3336469321879</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463764</v>
+        <v>823.1742672463769</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195419</v>
+        <v>651.5937905195424</v>
       </c>
       <c r="X28" t="n">
-        <v>534.917251170684</v>
+        <v>534.9172511706845</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187275</v>
+        <v>427.4580171187279</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1444.667430845791</v>
+        <v>1422.858215795352</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.309596934364</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D29" t="n">
-        <v>919.0615569173543</v>
+        <v>897.2523418669168</v>
       </c>
       <c r="E29" t="n">
-        <v>638.8517617792277</v>
+        <v>720.1816780663667</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8517617792277</v>
+        <v>420.6064121323035</v>
       </c>
       <c r="G29" t="n">
-        <v>337.323699989182</v>
+        <v>119.0783503422578</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422577</v>
+        <v>119.0783503422578</v>
       </c>
       <c r="I29" t="n">
         <v>60.83707630682017</v>
@@ -6464,7 +6464,7 @@
         <v>245.1314844327526</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306618</v>
+        <v>597.5677203306623</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
@@ -6473,10 +6473,10 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N29" t="n">
-        <v>2053.911209915791</v>
+        <v>2053.911209915792</v>
       </c>
       <c r="O29" t="n">
-        <v>2471.211658241752</v>
+        <v>2471.211658241753</v>
       </c>
       <c r="P29" t="n">
         <v>2811.664418550932</v>
@@ -6488,25 +6488,25 @@
         <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
-        <v>2859.417743213907</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U29" t="n">
-        <v>2719.108331683667</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V29" t="n">
-        <v>2496.704982335375</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W29" t="n">
-        <v>2270.555191999179</v>
+        <v>2248.745976948741</v>
       </c>
       <c r="X29" t="n">
-        <v>2003.100976276439</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y29" t="n">
-        <v>1724.135045608044</v>
+        <v>1702.325830557605</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6534,7 @@
         <v>214.4446016099565</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5067441566545</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I30" t="n">
         <v>60.83707630682017</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.478573190114</v>
+        <v>358.4785731901143</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075607</v>
+        <v>303.438528407561</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9425599910899</v>
+        <v>264.9425599910901</v>
       </c>
       <c r="E31" t="n">
         <v>227.5094705081751</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897186</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G31" t="n">
-        <v>135.260916413335</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837525</v>
+        <v>90.46419594837526</v>
       </c>
       <c r="I31" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219774</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197475</v>
+        <v>260.1708922197477</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731337</v>
+        <v>473.0738354731338</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538621</v>
+        <v>703.3632054538623</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565891</v>
+        <v>934.0814110565892</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.840921405406</v>
+        <v>1144.840921405405</v>
       </c>
       <c r="P31" t="n">
         <v>1320.10526898667</v>
@@ -6652,19 +6652,19 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321874</v>
+        <v>969.3336469321877</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463764</v>
+        <v>823.1742672463766</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195419</v>
+        <v>651.5937905195422</v>
       </c>
       <c r="X31" t="n">
-        <v>534.917251170684</v>
+        <v>534.9172511706843</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187275</v>
+        <v>427.4580171187278</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1542.53631811171</v>
+        <v>1542.536318111708</v>
       </c>
       <c r="C32" t="n">
-        <v>1303.684062512361</v>
+        <v>1303.684062512359</v>
       </c>
       <c r="D32" t="n">
-        <v>1073.941600807428</v>
+        <v>1073.941600807427</v>
       </c>
       <c r="E32" t="n">
-        <v>822.2373839813779</v>
+        <v>822.237383981377</v>
       </c>
       <c r="F32" t="n">
-        <v>551.1676963593916</v>
+        <v>551.1676963593909</v>
       </c>
       <c r="G32" t="n">
-        <v>278.145212881423</v>
+        <v>278.1452128814226</v>
       </c>
       <c r="H32" t="n">
-        <v>88.4054415465756</v>
+        <v>88.40544154657528</v>
       </c>
       <c r="I32" t="n">
-        <v>58.66974582321499</v>
+        <v>58.66974582321492</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9024712528139</v>
+        <v>270.9024712528141</v>
       </c>
       <c r="K32" t="n">
-        <v>651.2770244543899</v>
+        <v>651.2770244543904</v>
       </c>
       <c r="L32" t="n">
-        <v>999.1623975393361</v>
+        <v>1062.220891580058</v>
       </c>
       <c r="M32" t="n">
-        <v>1392.401563792424</v>
+        <v>1455.460057833146</v>
       </c>
       <c r="N32" t="n">
-        <v>1910.967103636933</v>
+        <v>1974.025597677655</v>
       </c>
       <c r="O32" t="n">
-        <v>2356.20586926656</v>
+        <v>2419.264363307283</v>
       </c>
       <c r="P32" t="n">
-        <v>2647.42125976334</v>
+        <v>2787.65544092013</v>
       </c>
       <c r="Q32" t="n">
-        <v>2882.08769460667</v>
+        <v>2882.087694606667</v>
       </c>
       <c r="R32" t="n">
-        <v>2933.487291160749</v>
+        <v>2933.487291160746</v>
       </c>
       <c r="S32" t="n">
-        <v>2889.339818858947</v>
+        <v>2889.339818858944</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.062375657802</v>
+        <v>2808.062375657799</v>
       </c>
       <c r="U32" t="n">
-        <v>2696.258542439637</v>
+        <v>2696.258542439636</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.360771403423</v>
+        <v>2502.360771403421</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.907344328868</v>
+        <v>2282.907344328865</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918205</v>
+        <v>2043.958706918202</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.498354561886</v>
+        <v>1793.498354561884</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.9825063252591</v>
+        <v>923.2698888651546</v>
       </c>
       <c r="C33" t="n">
-        <v>776.2788335662138</v>
+        <v>761.5662161061093</v>
       </c>
       <c r="D33" t="n">
-        <v>637.4401965564259</v>
+        <v>622.7275790963214</v>
       </c>
       <c r="E33" t="n">
-        <v>490.4121866132971</v>
+        <v>475.6995691531926</v>
       </c>
       <c r="F33" t="n">
-        <v>355.7183885631714</v>
+        <v>341.005771103067</v>
       </c>
       <c r="G33" t="n">
-        <v>226.9898885864559</v>
+        <v>212.2772711263516</v>
       </c>
       <c r="H33" t="n">
-        <v>127.052031133154</v>
+        <v>127.0520311331539</v>
       </c>
       <c r="I33" t="n">
-        <v>58.66974582321499</v>
+        <v>58.66974582321492</v>
       </c>
       <c r="J33" t="n">
         <v>118.9238923563211</v>
@@ -6783,7 +6783,7 @@
         <v>348.4144449165098</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2362900866254</v>
+        <v>714.2362900866253</v>
       </c>
       <c r="M33" t="n">
         <v>1199.269643596852</v>
@@ -6801,28 +6801,28 @@
         <v>2562.602789565417</v>
       </c>
       <c r="R33" t="n">
-        <v>2517.531138120466</v>
+        <v>2502.818520660362</v>
       </c>
       <c r="S33" t="n">
-        <v>2364.731651133207</v>
+        <v>2350.019033673103</v>
       </c>
       <c r="T33" t="n">
-        <v>2176.046547299192</v>
+        <v>2161.333929839088</v>
       </c>
       <c r="U33" t="n">
-        <v>1957.551754897502</v>
+        <v>1942.839137437398</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.156132345836</v>
+        <v>1714.443514885732</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.840263579146</v>
+        <v>1473.127646119042</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.923275456941</v>
+        <v>1275.210657996837</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.40194910652</v>
+        <v>1082.689331646415</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.77219452197</v>
+        <v>156.7721945219681</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2377280514937</v>
+        <v>130.237728051492</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2473379470998</v>
+        <v>120.2473379470984</v>
       </c>
       <c r="E34" t="n">
-        <v>111.319826776262</v>
+        <v>111.3198267762609</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9206748698825</v>
+        <v>101.9206748698817</v>
       </c>
       <c r="G34" t="n">
-        <v>76.08242930557587</v>
+        <v>76.08242930557529</v>
       </c>
       <c r="H34" t="n">
-        <v>59.79128715269308</v>
+        <v>59.79128715269276</v>
       </c>
       <c r="I34" t="n">
-        <v>58.66974582321499</v>
+        <v>58.66974582321492</v>
       </c>
       <c r="J34" t="n">
-        <v>58.66974582321499</v>
+        <v>58.66974582321492</v>
       </c>
       <c r="K34" t="n">
-        <v>92.27393356785839</v>
+        <v>232.5081147246519</v>
       </c>
       <c r="L34" t="n">
-        <v>192.8810129681179</v>
+        <v>333.1151941249114</v>
       </c>
       <c r="M34" t="n">
-        <v>310.8745190957196</v>
+        <v>451.1087002525131</v>
       </c>
       <c r="N34" t="n">
-        <v>429.29686084532</v>
+        <v>634.7077897288152</v>
       </c>
       <c r="O34" t="n">
-        <v>630.7077033212353</v>
+        <v>873.4056173812984</v>
       </c>
       <c r="P34" t="n">
-        <v>833.9103682061664</v>
+        <v>936.3741011094362</v>
       </c>
       <c r="Q34" t="n">
-        <v>936.3741011094403</v>
+        <v>936.3741011094362</v>
       </c>
       <c r="R34" t="n">
-        <v>929.9338227916619</v>
+        <v>929.933822791658</v>
       </c>
       <c r="S34" t="n">
-        <v>859.3055632631929</v>
+        <v>859.3055632631892</v>
       </c>
       <c r="T34" t="n">
-        <v>769.208113146715</v>
+        <v>769.2081131467118</v>
       </c>
       <c r="U34" t="n">
-        <v>625.0993767036583</v>
+        <v>625.0993767036553</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4455753299243</v>
+        <v>507.4455753299214</v>
       </c>
       <c r="W34" t="n">
-        <v>364.3706769151668</v>
+        <v>364.3706769151642</v>
       </c>
       <c r="X34" t="n">
-        <v>276.199715878386</v>
+        <v>276.1997158783836</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.2460601385064</v>
+        <v>197.2460601385043</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>567.8831210837625</v>
+        <v>479.0485364810476</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687087</v>
+        <v>826.9339095659939</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421797</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N35" t="n">
-        <v>1687.339019109512</v>
+        <v>1598.504434506797</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.343603582346</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7008,7 +7008,7 @@
         <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208573</v>
@@ -7075,31 +7075,31 @@
         <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54268635500836</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E37" t="n">
-        <v>81.02642599070933</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F37" t="n">
-        <v>96.04791054150586</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
-        <v>94.93529841688813</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
         <v>348.4115961716261</v>
@@ -7154,10 +7154,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
         <v>469.4217245791957</v>
@@ -7166,34 +7166,34 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>527.7073651707066</v>
+        <v>479.0485364810478</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.060512746685</v>
+        <v>826.9339095659941</v>
       </c>
       <c r="M38" t="n">
-        <v>1473.475434912829</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N38" t="n">
-        <v>1851.806793600545</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073379</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926717</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7202,22 +7202,22 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U38" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>82.50168994950198</v>
+        <v>74.23504503930332</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>74.23504503930332</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>107.8392327839467</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>208.4463121842062</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>326.439818311808</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>444.8621600614084</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1315.263619900707</v>
+        <v>1315.263619900709</v>
       </c>
       <c r="C41" t="n">
-        <v>1095.30897365704</v>
+        <v>1095.308973657043</v>
       </c>
       <c r="D41" t="n">
-        <v>884.4641213077894</v>
+        <v>884.4641213077924</v>
       </c>
       <c r="E41" t="n">
-        <v>651.6575138374221</v>
+        <v>651.6575138374253</v>
       </c>
       <c r="F41" t="n">
-        <v>399.4854355711181</v>
+        <v>486.9057968312143</v>
       </c>
       <c r="G41" t="n">
-        <v>145.3605614488319</v>
+        <v>232.7809227089284</v>
       </c>
       <c r="H41" t="n">
-        <v>51.10067436208573</v>
+        <v>61.93876072976369</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>281.854946721189</v>
+        <v>281.8549467211893</v>
       </c>
       <c r="K41" t="n">
-        <v>649.2283573768148</v>
+        <v>521.995318765972</v>
       </c>
       <c r="L41" t="n">
-        <v>1155.869458548059</v>
+        <v>869.8806918509183</v>
       </c>
       <c r="M41" t="n">
-        <v>1549.108624801147</v>
+        <v>1263.119858104006</v>
       </c>
       <c r="N41" t="n">
-        <v>1927.439983488862</v>
+        <v>1641.451216791722</v>
       </c>
       <c r="O41" t="n">
-        <v>2232.444567961696</v>
+        <v>1946.455801264556</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.601464417749</v>
+        <v>2301.845736331452</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7448,13 +7448,13 @@
         <v>2199.497635769691</v>
       </c>
       <c r="W41" t="n">
-        <v>1998.941818050818</v>
+        <v>1998.941818050819</v>
       </c>
       <c r="X41" t="n">
-        <v>1778.890789995837</v>
+        <v>1778.890789995838</v>
       </c>
       <c r="Y41" t="n">
-        <v>1547.3280469952</v>
+        <v>1547.328046995202</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67816768550387</v>
+        <v>58.7375314768794</v>
       </c>
       <c r="C43" t="n">
-        <v>58.04131057070994</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>58.04131057070994</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E43" t="n">
-        <v>58.04131057070994</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F43" t="n">
-        <v>58.04131057070994</v>
+        <v>58.04131057070968</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208573</v>
@@ -7585,34 +7585,34 @@
         <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>687.6589211097368</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>687.6589211097368</v>
+        <v>680.7182849011102</v>
       </c>
       <c r="R43" t="n">
-        <v>687.6589211097368</v>
+        <v>680.7182849011102</v>
       </c>
       <c r="S43" t="n">
-        <v>635.9282709369501</v>
+        <v>628.9876347283238</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7284301761547</v>
+        <v>557.7877939675286</v>
       </c>
       <c r="U43" t="n">
-        <v>439.5173030887803</v>
+        <v>432.5766668801545</v>
       </c>
       <c r="V43" t="n">
-        <v>340.7611110707286</v>
+        <v>333.8204748621031</v>
       </c>
       <c r="W43" t="n">
-        <v>216.5838220116535</v>
+        <v>209.6431858030283</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305551</v>
+        <v>140.3698341219301</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.25442394635792</v>
+        <v>80.31378773773318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.263619900707</v>
+        <v>1315.263619900709</v>
       </c>
       <c r="C44" t="n">
-        <v>1095.30897365704</v>
+        <v>1171.891248549457</v>
       </c>
       <c r="D44" t="n">
-        <v>884.4641213077897</v>
+        <v>961.0463962002071</v>
       </c>
       <c r="E44" t="n">
-        <v>739.077875097519</v>
+        <v>728.23978872984</v>
       </c>
       <c r="F44" t="n">
-        <v>486.9057968312151</v>
+        <v>476.0677104635363</v>
       </c>
       <c r="G44" t="n">
-        <v>232.7809227089289</v>
+        <v>221.9428363412504</v>
       </c>
       <c r="H44" t="n">
-        <v>61.93876072976396</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>281.854946721189</v>
+        <v>281.8549467211893</v>
       </c>
       <c r="K44" t="n">
-        <v>649.2283573768152</v>
+        <v>521.995318765972</v>
       </c>
       <c r="L44" t="n">
-        <v>997.1137304617615</v>
+        <v>1028.636419937216</v>
       </c>
       <c r="M44" t="n">
-        <v>1549.108624801147</v>
+        <v>1421.875586190304</v>
       </c>
       <c r="N44" t="n">
-        <v>1927.439983488863</v>
+        <v>1800.20694487802</v>
       </c>
       <c r="O44" t="n">
-        <v>2232.444567961697</v>
+        <v>2105.211529350854</v>
       </c>
       <c r="P44" t="n">
         <v>2460.60146441775</v>
@@ -7682,16 +7682,16 @@
         <v>2374.497797450224</v>
       </c>
       <c r="V44" t="n">
-        <v>2199.497635769691</v>
+        <v>2199.497635769692</v>
       </c>
       <c r="W44" t="n">
-        <v>1998.941818050818</v>
+        <v>1998.941818050819</v>
       </c>
       <c r="X44" t="n">
-        <v>1778.890789995837</v>
+        <v>1778.890789995838</v>
       </c>
       <c r="Y44" t="n">
-        <v>1547.3280469952</v>
+        <v>1547.328046995202</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.67816768550388</v>
+        <v>65.67816768550331</v>
       </c>
       <c r="C46" t="n">
-        <v>58.04131057070995</v>
+        <v>58.04131057070967</v>
       </c>
       <c r="D46" t="n">
-        <v>58.04131057070995</v>
+        <v>58.04131057070967</v>
       </c>
       <c r="E46" t="n">
-        <v>58.04131057070995</v>
+        <v>58.04131057070967</v>
       </c>
       <c r="F46" t="n">
-        <v>58.04131057070995</v>
+        <v>58.04131057070967</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208574</v>
@@ -7804,52 +7804,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>150.994302910414</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>189.2038636084476</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
-        <v>289.8109430087072</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>407.8044491363089</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>526.2267908859093</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>624.6904373815989</v>
+        <v>624.690437381596</v>
       </c>
       <c r="P46" t="n">
-        <v>687.6589211097368</v>
+        <v>687.6589211097338</v>
       </c>
       <c r="Q46" t="n">
-        <v>687.6589211097368</v>
+        <v>687.6589211097338</v>
       </c>
       <c r="R46" t="n">
-        <v>687.6589211097368</v>
+        <v>687.6589211097338</v>
       </c>
       <c r="S46" t="n">
-        <v>635.9282709369501</v>
+        <v>635.9282709369475</v>
       </c>
       <c r="T46" t="n">
-        <v>564.7284301761547</v>
+        <v>564.7284301761523</v>
       </c>
       <c r="U46" t="n">
-        <v>439.5173030887803</v>
+        <v>439.5173030887782</v>
       </c>
       <c r="V46" t="n">
-        <v>340.7611110707286</v>
+        <v>340.7611110707269</v>
       </c>
       <c r="W46" t="n">
-        <v>216.5838220116535</v>
+        <v>216.5838220116521</v>
       </c>
       <c r="X46" t="n">
-        <v>147.3104703305551</v>
+        <v>147.3104703305539</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.25442394635793</v>
+        <v>87.25442394635706</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>386.8429258133746</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7991,13 +7991,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>483.1544376515484</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,28 +8055,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>395.8387438482262</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>604.9267112876339</v>
+        <v>604.926711287633</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>365.6438786617431</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>435.6876660906826</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>383.7922100937844</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8292,7 +8292,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8304,13 +8304,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>604.9267112876339</v>
+        <v>127.4990846799631</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>271.872764797023</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8532,7 +8532,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1300184260142</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>437.4149613343855</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.4944203312438</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>548.5390329212601</v>
+        <v>548.5390329212573</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>259.3571946071089</v>
+        <v>198.4944203312406</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>548.5390329212601</v>
+        <v>548.5390329212573</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9720,13 +9720,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>407.4863951691349</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>548.5390329212601</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>605.416582875</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>101.36664330765</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>26.68609357995474</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747227</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508322</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327663</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>264.684255572312</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>252.3620579264105</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>56.73326144537711</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655129</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>79.900063473741</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>102.1077400242009</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>102.1077400242008</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>21.59112289993324</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>86.54615764749177</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>75.81645214349462</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400143</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25865,13 +25865,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>75.81645214349064</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>86.54615764749573</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.72970550400115</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>655042.8390009984</v>
+        <v>655042.8390009983</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655042.8390009984</v>
+        <v>655042.8390009983</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>599778.4820059254</v>
+        <v>599778.4820059253</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>599778.4820059256</v>
+        <v>599778.4820059253</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>656491.4149857779</v>
+        <v>656491.4149857778</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>635755.3141420861</v>
+        <v>635755.3141420862</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650966.0936469648</v>
+        <v>650966.0936469649</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>650966.0936469648</v>
+        <v>650966.0936469649</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710052.2559571185</v>
+        <v>710052.2559571182</v>
       </c>
       <c r="C2" t="n">
-        <v>710052.2559571181</v>
+        <v>710052.2559571184</v>
       </c>
       <c r="D2" t="n">
         <v>710052.2559571184</v>
@@ -26323,28 +26323,28 @@
         <v>646465.028070615</v>
       </c>
       <c r="F2" t="n">
-        <v>646465.0280706148</v>
+        <v>646465.028070615</v>
       </c>
       <c r="G2" t="n">
-        <v>710052.2559571182</v>
+        <v>710052.2559571177</v>
       </c>
       <c r="H2" t="n">
-        <v>710052.2559571179</v>
+        <v>710052.2559571177</v>
       </c>
       <c r="I2" t="n">
-        <v>710052.2559571179</v>
+        <v>710052.2559571178</v>
       </c>
       <c r="J2" t="n">
         <v>686625.3520155768</v>
       </c>
       <c r="K2" t="n">
-        <v>686625.352015576</v>
+        <v>686625.3520155767</v>
       </c>
       <c r="L2" t="n">
-        <v>710052.2559571173</v>
+        <v>710052.2559571178</v>
       </c>
       <c r="M2" t="n">
-        <v>710052.2559571188</v>
+        <v>710052.2559571187</v>
       </c>
       <c r="N2" t="n">
         <v>710052.2559571186</v>
@@ -26353,7 +26353,7 @@
         <v>703679.8623695334</v>
       </c>
       <c r="P2" t="n">
-        <v>703679.8623695334</v>
+        <v>703679.8623695335</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166962.1560468121</v>
+        <v>166962.1560468118</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8415.473351528439</v>
+        <v>8415.473351528677</v>
       </c>
       <c r="E3" t="n">
-        <v>118993.6101405801</v>
+        <v>118993.6101405799</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46058.92734773059</v>
+        <v>46058.92734773069</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211812.5155937559</v>
+        <v>211812.5155937558</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089556</v>
+        <v>68635.34537089588</v>
       </c>
       <c r="M3" t="n">
-        <v>19582.7016842336</v>
+        <v>19582.70168423339</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40069.40998430325</v>
+        <v>40069.40998430336</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214830.1977547241</v>
+        <v>214830.1977547243</v>
       </c>
       <c r="C4" t="n">
-        <v>214830.1977547241</v>
+        <v>214830.1977547243</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
       </c>
       <c r="E4" t="n">
-        <v>161512.4500031763</v>
+        <v>161512.4500031762</v>
       </c>
       <c r="F4" t="n">
-        <v>161512.4500031763</v>
+        <v>161512.4500031762</v>
       </c>
       <c r="G4" t="n">
         <v>200499.9663201623</v>
@@ -26451,13 +26451,13 @@
         <v>198982.8504522114</v>
       </c>
       <c r="N4" t="n">
-        <v>198982.8504522115</v>
+        <v>198982.8504522114</v>
       </c>
       <c r="O4" t="n">
-        <v>195068.9606019817</v>
+        <v>195068.9606019819</v>
       </c>
       <c r="P4" t="n">
-        <v>195068.9606019818</v>
+        <v>195068.960601982</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63918.86346937148</v>
+        <v>63918.86346937143</v>
       </c>
       <c r="C5" t="n">
-        <v>63918.86346937148</v>
+        <v>63918.86346937143</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47226.88953147924</v>
+        <v>47226.88953147919</v>
       </c>
       <c r="F5" t="n">
-        <v>47226.88953147924</v>
+        <v>47226.8895314792</v>
       </c>
       <c r="G5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547465</v>
       </c>
       <c r="H5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547466</v>
       </c>
       <c r="I5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547466</v>
       </c>
       <c r="J5" t="n">
         <v>55772.13857729293</v>
@@ -26497,7 +26497,7 @@
         <v>55772.13857729292</v>
       </c>
       <c r="L5" t="n">
-        <v>56497.43851823981</v>
+        <v>56497.43851823978</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26506,10 +26506,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52317.76029749521</v>
+        <v>52317.76029749523</v>
       </c>
       <c r="P5" t="n">
-        <v>52317.76029749522</v>
+        <v>52317.76029749524</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264341.0386862107</v>
+        <v>264341.0386862106</v>
       </c>
       <c r="C6" t="n">
         <v>431303.1947330226</v>
       </c>
       <c r="D6" t="n">
-        <v>427887.640873855</v>
+        <v>427887.6408738547</v>
       </c>
       <c r="E6" t="n">
-        <v>318732.0783953794</v>
+        <v>318560.2210227135</v>
       </c>
       <c r="F6" t="n">
-        <v>437725.6885359593</v>
+        <v>437553.8311632933</v>
       </c>
       <c r="G6" t="n">
-        <v>411426.3128037506</v>
+        <v>411426.3128037499</v>
       </c>
       <c r="H6" t="n">
-        <v>457485.2401514808</v>
+        <v>457485.2401514807</v>
       </c>
       <c r="I6" t="n">
         <v>457485.2401514808</v>
       </c>
       <c r="J6" t="n">
-        <v>233784.5707624434</v>
+        <v>233721.2548058447</v>
       </c>
       <c r="K6" t="n">
-        <v>445597.0863561986</v>
+        <v>445533.7703996006</v>
       </c>
       <c r="L6" t="n">
-        <v>385459.8444469349</v>
+        <v>385459.8444469351</v>
       </c>
       <c r="M6" t="n">
-        <v>438683.8869280274</v>
+        <v>438683.8869280276</v>
       </c>
       <c r="N6" t="n">
         <v>458266.5886122608</v>
       </c>
       <c r="O6" t="n">
-        <v>416223.7314857531</v>
+        <v>416206.508800381</v>
       </c>
       <c r="P6" t="n">
-        <v>456293.1414700564</v>
+        <v>456275.9187846844</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="H2" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="P2" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199247</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199249</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.916594529106</v>
+        <v>619.9165945291052</v>
       </c>
       <c r="F4" t="n">
-        <v>619.916594529106</v>
+        <v>619.9165945291053</v>
       </c>
       <c r="G4" t="n">
-        <v>619.916594529106</v>
+        <v>619.9165945291052</v>
       </c>
       <c r="H4" t="n">
-        <v>619.916594529106</v>
+        <v>619.9165945291053</v>
       </c>
       <c r="I4" t="n">
-        <v>619.916594529106</v>
+        <v>619.9165945291053</v>
       </c>
       <c r="J4" t="n">
         <v>760.4634538352522</v>
@@ -26817,13 +26817,13 @@
         <v>760.463453835252</v>
       </c>
       <c r="L4" t="n">
-        <v>733.3718227901874</v>
+        <v>733.3718227901866</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260716</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.57365918466324</v>
+        <v>57.57365918466336</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.85650632354549</v>
+        <v>55.85650632354537</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.79418171361945</v>
+        <v>85.79418171361985</v>
       </c>
       <c r="M2" t="n">
-        <v>24.478377105292</v>
+        <v>24.47837710529174</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.08676248037906</v>
+        <v>50.08676248037921</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199247</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.09163104506467</v>
+        <v>27.09163104506544</v>
       </c>
       <c r="E4" t="n">
-        <v>94.61339326411564</v>
+        <v>94.61339326411488</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.57365918466324</v>
+        <v>57.57365918466336</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.85650632354549</v>
+        <v>55.85650632354537</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199247</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.09163104506467</v>
+        <v>27.09163104506544</v>
       </c>
       <c r="M4" t="n">
-        <v>94.61339326411564</v>
+        <v>94.61339326411488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>176.9388954852313</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>31.13474340424983</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.1592145607895</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>17.71405460463054</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>144.1543510264476</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>25.5553162596275</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,7 +27588,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27622,16 +27622,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>64.37076078990265</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>166.0381764363873</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.82245686718962</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>40.61156201164644</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>243.6240755350413</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>264.0806145921396</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>308.7740832470508</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>108.2594887509471</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.5526966434358</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>271.7216854425707</v>
       </c>
       <c r="V10" t="n">
-        <v>200.064622270292</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28114,28 +28114,28 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.64205129852571</v>
+        <v>34.34031316762619</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>19.98842208489216</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>28.50045832572484</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28363,16 +28363,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>34.3403131676265</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="P14" t="n">
-        <v>10.64205129852581</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>87.68688454172866</v>
+        <v>87.6868845417313</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4301655082094</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O16" t="n">
         <v>113.4301655082087</v>
@@ -28561,31 +28561,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="C17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="D17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="F17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="G17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="H17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="J17" t="n">
-        <v>122.3550639456168</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28594,10 +28594,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>122.3550639456134</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="S17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="T17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="U17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="V17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="W17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="X17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
     </row>
     <row r="18">
@@ -28652,10 +28652,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>87.68688454173176</v>
       </c>
       <c r="G18" t="n">
-        <v>87.68688454172866</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.944766807330453</v>
       </c>
       <c r="Q19" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>151.9713303790973</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="T19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="U19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="V19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="W19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="X19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
     </row>
     <row r="20">
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="C20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="D20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="F20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="G20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="H20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="J20" t="n">
-        <v>171.0038246928719</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>171.0038246928719</v>
+        <v>32.62316030650877</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="R20" t="n">
-        <v>122.3550639456169</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="T20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="U20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="V20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="W20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="X20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>19.98842208489167</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>28.50045832572484</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="C22" t="n">
-        <v>171.0038246928719</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>152.4019261979111</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.944766807330737</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="T22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="U22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="V22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="W22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="X22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="C23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="D23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="F23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="G23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="H23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>122.3550639456168</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>171.0038246928719</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>32.62316030650854</v>
       </c>
       <c r="R23" t="n">
-        <v>171.0038246928719</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="T23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="U23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="V23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="W23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="X23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>87.6868845417313</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>87.68688454172874</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>42.09673474017852</v>
       </c>
       <c r="R25" t="n">
-        <v>151.9713303790973</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="T25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="U25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="V25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="W25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="X25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928721</v>
       </c>
     </row>
     <row r="26">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550359</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29408,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550358</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O31" t="n">
-        <v>113.430165508209</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P31" t="n">
         <v>113.4301655082087</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="C32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="D32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="E32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="F32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="G32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="H32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="I32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="J32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="K32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>63.69544852598136</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="O32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="P32" t="n">
-        <v>63.69544852598659</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6506880371649</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="S32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="T32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="U32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="V32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="W32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="X32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="C34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="D34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="E34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="F34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="G34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="I34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="J34" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>65.83509871384011</v>
       </c>
       <c r="O34" t="n">
-        <v>103.9870666466925</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="P34" t="n">
-        <v>141.6506880371649</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.6506880371649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="S34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="T34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="U34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="V34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="X34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371652</v>
       </c>
     </row>
     <row r="35">
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>116.9787331327005</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>40.58157162934944</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30147,19 +30147,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>159.063286932391</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30247,28 +30247,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>116.9787331327007</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M38" t="n">
-        <v>40.5815716293497</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30390,19 +30390,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
-        <v>74.42408546687525</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>22.19371500991728</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,37 +30457,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="C41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="D41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="E41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="F41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="G41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="H41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="I41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="J41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="K41" t="n">
-        <v>128.5182208190334</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>160.3593212992905</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>128.5182208190333</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="T41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="U41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="V41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="W41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="X41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="Y41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="C43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,10 +30627,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>157.9665920695554</v>
       </c>
       <c r="G43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>105.5545469714328</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>136.6957712592033</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="T43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="U43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="V43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="W43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="X43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
     </row>
     <row r="44">
@@ -30694,40 +30694,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="C44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="D44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="E44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="F44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="G44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="H44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="I44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="J44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="K44" t="n">
-        <v>128.5182208190338</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="M44" t="n">
-        <v>160.3593212992905</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>128.5182208190333</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="T44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="U44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="V44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="W44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="X44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="C46" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -30876,10 +30876,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>160.3593212992905</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>4.651891872111314</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.5545469714298</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="T46" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="U46" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="V46" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="W46" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="X46" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>208.0199218393278</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34711,13 +34711,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>296.199640871428</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>283.2633102770784</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199247</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>256.7896726375998</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>244.127453927568</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>195.9154010426279</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35024,13 +35024,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>498.2115702199256</v>
+        <v>20.78394361225482</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0185587728796</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35252,7 +35252,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>15.27581240187084</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
@@ -35422,16 +35422,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P11" t="n">
         <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
-        <v>106.0281661334116</v>
+        <v>129.7264280025121</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910353</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>321.5555127232743</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.75922888635132</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35574,19 +35574,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M13" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N13" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O13" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P13" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,16 +35659,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>421.5156043696571</v>
+        <v>342.4257520290749</v>
       </c>
       <c r="P14" t="n">
-        <v>241.1035628702967</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910352</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>441.8238918535517</v>
+        <v>441.823891853549</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.9734993082397</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35811,19 +35811,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M16" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N16" t="n">
-        <v>233.0486925280078</v>
+        <v>233.0486925280071</v>
       </c>
       <c r="O16" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536085</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>195.0808662413801</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35890,10 +35890,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>568.2151037363951</v>
+        <v>568.2151037363952</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>504.5079515089627</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35905,7 +35905,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>81.27192105376676</v>
+        <v>81.2719210537669</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.6220031622164</v>
+        <v>84.75922888634811</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,13 +36057,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
-        <v>63.604529018321</v>
+        <v>67.54929582565146</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.944766807331698</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>243.7296269886352</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>413.5698570613393</v>
+        <v>275.1891926749762</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>568.2151037363952</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36139,10 +36139,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>266.389939527758</v>
       </c>
       <c r="R20" t="n">
-        <v>32.62316030651173</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>441.8238918535517</v>
+        <v>441.823891853549</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36255,10 +36255,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.084014849935443</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8607519573962521</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>123.5632938271291</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>243.7296269886354</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>473.7544306980878</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>568.2151037363951</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>479.0892635543205</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>128.0092751413944</v>
       </c>
       <c r="R23" t="n">
-        <v>81.27192105376676</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>294.9109615979871</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>441.8238918535517</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36534,10 +36534,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.944766807330665</v>
       </c>
       <c r="R25" t="n">
-        <v>3.944766807331698</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917339</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3764903329282</v>
+        <v>214.3764903329285</v>
       </c>
       <c r="K32" t="n">
-        <v>384.2167204056324</v>
+        <v>384.2167204056326</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>415.0948152784523</v>
       </c>
       <c r="M32" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>523.8035756005141</v>
+        <v>523.8035756005145</v>
       </c>
       <c r="O32" t="n">
-        <v>449.7361268986134</v>
+        <v>449.7361268986136</v>
       </c>
       <c r="P32" t="n">
-        <v>294.1569600977575</v>
+        <v>372.1121996089361</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.0368028720508</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>51.91878439805976</v>
+        <v>51.91878439806001</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>175.5943120216535</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
@@ -37236,16 +37236,16 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>185.4536257336385</v>
       </c>
       <c r="O34" t="n">
-        <v>203.4452954302174</v>
+        <v>241.1089168206901</v>
       </c>
       <c r="P34" t="n">
-        <v>205.255217055486</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.4987201043171</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>283.1476039978169</v>
+        <v>359.5447655011679</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37318,16 +37318,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,19 +37443,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.284368163872038</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37543,16 +37543,16 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>359.5447655011682</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>437.7928506728729</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
@@ -37561,10 +37561,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37686,19 +37686,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
-        <v>14.96741926690626</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37713,7 +37713,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>121.6519437934422</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>233.0851235950538</v>
+        <v>233.0851235950541</v>
       </c>
       <c r="K41" t="n">
-        <v>371.0842531875008</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>511.7586880517615</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37795,10 +37795,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>358.9797323908043</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>255.7454361341766</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>7.010743645074704</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>169.1590759897538</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>98.54380332635547</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.0851235950538</v>
+        <v>233.0851235950541</v>
       </c>
       <c r="K44" t="n">
-        <v>371.0842531875012</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>511.7586880517617</v>
       </c>
       <c r="M44" t="n">
-        <v>557.5706003428137</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
@@ -38032,7 +38032,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>358.9797323908043</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
@@ -38102,10 +38102,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N45" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.9026550993215</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>38.59551585659961</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
@@ -38187,7 +38187,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>205.0127757549548</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
